--- a/Months of 2018/August 2018/Validation/Valid_SatModel_August.xlsx
+++ b/Months of 2018/August 2018/Validation/Valid_SatModel_August.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\Models\August 2018\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\Months of 2018\August 2018\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9225" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Observed_Rel!$A$3:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">p!$A$3:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">RStore!$A$3:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">XStore!$A$3:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">XStore!$A$3:$B$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="119">
   <si>
     <t>XStore</t>
   </si>
@@ -75,34 +75,34 @@
     <t>d</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>RStore</t>
+  </si>
+  <si>
+    <t>Store Release values during different types of days (cfs)</t>
+  </si>
+  <si>
     <t>p</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>pLow</t>
   </si>
   <si>
     <t>pHigh</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Weekday</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t>RStore</t>
-  </si>
-  <si>
-    <t>Store Release values during different types of days (cfs)</t>
   </si>
   <si>
     <t>(set)</t>
@@ -749,9 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1299,7 +1304,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>112</v>
@@ -1350,7 +1355,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>111</v>
@@ -1362,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,10 +1480,10 @@
         <v>111</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>2</v>
@@ -1544,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -1577,7 +1582,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1594,7 +1599,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1611,7 +1616,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1648,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -1681,7 +1686,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1698,7 +1703,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1715,7 +1720,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1752,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,13 +1776,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -1788,10 +1793,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1808,10 +1813,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1828,10 +1833,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1848,10 +1853,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1868,10 +1873,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1888,10 +1893,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1928,7 +1933,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,7 +1952,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1993,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,7 +2050,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,12 +2069,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2077,7 +2082,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2085,7 +2090,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -2113,7 +2118,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,18 +2137,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>12736.72</v>
@@ -2151,10 +2156,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>11024.26</v>
@@ -2162,10 +2167,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>12736.72</v>
@@ -2173,10 +2178,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>11646.88</v>
@@ -2184,10 +2189,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>13137.8</v>
@@ -2195,10 +2200,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>17211.28</v>
@@ -2226,12 +2231,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -2247,7 +2252,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2255,7 +2260,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2283,18 +2288,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,18 +2307,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>12736.72</v>
@@ -2321,10 +2326,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>11024.26</v>
@@ -2332,10 +2337,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>12736.72</v>
@@ -2343,10 +2348,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>11646.88</v>
@@ -2354,10 +2359,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>13137.8</v>
@@ -2365,10 +2370,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>17211.28</v>
@@ -2385,9 +2390,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2396,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,78 +2424,33 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>15141.412736</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10338.173328000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>26211.280576000001</v>
+      <c r="B5">
+        <v>10708.258656</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>15141.412736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>27691.621888000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>89804.745680000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>235298.85113599998</v>
+      <c r="B6">
+        <v>14134.938991999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9"/>
+  <autoFilter ref="A3:B6"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC"/>
   </hyperlinks>
@@ -2506,7 +2468,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,7 +2476,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -2693,7 +2655,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2773,7 +2735,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2906,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,17 +2889,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +2924,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,15 +2940,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -2994,7 +2956,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -3022,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,18 +3003,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>49.7</v>
@@ -3060,10 +3022,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>49.7</v>
@@ -3071,10 +3033,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>49.7</v>
@@ -3082,10 +3044,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>64.349999999999994</v>
@@ -3093,10 +3055,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>49.7</v>
@@ -3104,10 +3066,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>79</v>
@@ -3135,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,13 +3116,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -3171,10 +3133,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3191,10 +3153,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3211,10 +3173,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3231,10 +3193,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3251,10 +3213,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3271,10 +3233,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3311,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3330,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -3347,10 +3309,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>12736.72</v>
@@ -3367,10 +3329,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>11024.26</v>
@@ -3387,10 +3349,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>12736.72</v>
@@ -3407,10 +3369,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>11646.88</v>
@@ -3427,10 +3389,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>13137.8</v>
@@ -3447,10 +3409,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>17211.28</v>
@@ -3487,7 +3449,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,13 +3468,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -3523,10 +3485,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -3543,10 +3505,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3563,10 +3525,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -3583,10 +3545,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -3603,10 +3565,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -3623,10 +3585,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3663,7 +3625,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -3699,10 +3661,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>8000</v>
@@ -3719,10 +3681,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -3739,10 +3701,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>8000</v>
@@ -3759,10 +3721,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -3779,10 +3741,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>8000</v>
@@ -3799,10 +3761,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>8000</v>
